--- a/medicine/Pharmacie/_topiramate/_topiramate.xlsx
+++ b/medicine/Pharmacie/_topiramate/_topiramate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association phentermine / topiramate est un couple de deux principes actifs commercialisé aux États-Unis en vue du traitement préventif de l'obésité. Il a été autorisé par l'agence fédérale des médicaments des États-Unis (FDA) en février 2012 sous le nom de spécialité Qsymia[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association phentermine / topiramate est un couple de deux principes actifs commercialisé aux États-Unis en vue du traitement préventif de l'obésité. Il a été autorisé par l'agence fédérale des médicaments des États-Unis (FDA) en février 2012 sous le nom de spécialité Qsymia.
 La phentermine 15 mg est un anorexigène de la famille des phénylbutylamines tertiaires.
-Le topiramate 92 mg est un anti-convulsif de structure hétérocyclique, indiqué dans le traitement de l'épilepsie chez l'enfant. Cette molécule présente également des propriétés d'antidépresseur et a été proposée dans les états limites et pour traiter les troubles bipolaires. Le topiramate a été étudié en traitement adjuvant du sevrage alcoolique[2].
-L'agence européenne du médicament (EMA) a enregistré l'association sous le code EMEA-000826-PIP01-09[3]. Le 29 octobre 2010 elle a refusé le projet d'étude clinique qui devait être réalisés chez l'enfant, conformément à la recommandation européenne No 1901/2006, voté par le Parlement européen
+Le topiramate 92 mg est un anti-convulsif de structure hétérocyclique, indiqué dans le traitement de l'épilepsie chez l'enfant. Cette molécule présente également des propriétés d'antidépresseur et a été proposée dans les états limites et pour traiter les troubles bipolaires. Le topiramate a été étudié en traitement adjuvant du sevrage alcoolique.
+L'agence européenne du médicament (EMA) a enregistré l'association sous le code EMEA-000826-PIP01-09. Le 29 octobre 2010 elle a refusé le projet d'étude clinique qui devait être réalisés chez l'enfant, conformément à la recommandation européenne No 1901/2006, voté par le Parlement européen
 </t>
         </is>
       </c>
